--- a/Warehouse/DA/judgement_logs_run4o.xlsx
+++ b/Warehouse/DA/judgement_logs_run4o.xlsx
@@ -462,13 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: Based on the summary of the transcript, the committee did not reach a definitive decision about what movie to show on Friday, and they suggested having further discussions and a vote. Therefore, I will call the no_decision function.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision is to acquire the rights for "Barbie" for the event on Friday.
 </t>
         </is>
       </c>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for “Oppenheimer” to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," as it aligns with the emotional and developmental needs of the students.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for Friday's movie screening.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire public performance rights for "Barbie" to be shown at the Friday event.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the assembly on Friday.
 </t>
         </is>
       </c>
@@ -638,13 +638,13 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made based on the committee's agreement to prioritize a positive and uplifting experience for the students during the assembly.
+MSG: The committee has decided to acquire the rights to show "Barbie" for the upcoming event on Friday.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the student screening on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for "Barbie" has been made, and it will be shown on Friday as agreed upon by the committee.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been made, as it will be the movie shown on Friday, with discussions involving "Oppenheimer" and its themes to follow.
 </t>
         </is>
       </c>
@@ -748,13 +748,13 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights to show "Barbie" for the upcoming event on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for Friday's movie showing.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the graduation event.
+MSG: The decision is to acquire the rights for "Barbie" to be shown at the graduation event.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for Friday's movie screening.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer."
+MSG: The decision to acquire the rights for "Oppenheimer" has been recorded.
 </t>
         </is>
       </c>
@@ -836,13 +836,13 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to show on Friday.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the Friday event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown at the Friday event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming student event.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: I have recorded the decision to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," which will be screened for the students on Friday.
 </t>
         </is>
       </c>
@@ -990,13 +990,13 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the screening on Friday.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for Friday's movie event.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" as it will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie screening on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie."
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie" for Friday's showing.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming school assembly.
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the seniors' event on Friday.
 </t>
         </is>
       </c>
@@ -1254,13 +1254,13 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has ended the conversation without reaching a specific decision about which movie will be shown on Friday, so I will call the no_decision function.
+MSG: The committee has decided to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The committee has decided to acquire the rights to show "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer," as it will be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>

--- a/Warehouse/DA/judgement_logs_run4o.xlsx
+++ b/Warehouse/DA/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Based on the summary of the transcript, the committee did not reach a definitive decision about what movie to show on Friday, and they suggested having further discussions and a vote. Therefore, I will call the no_decision function.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -484,13 +484,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" for the event on Friday.
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for “Oppenheimer” to be shown on Friday.
+MSG: The decision about which movie to play on Friday has resulted in no consensus.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -528,13 +528,13 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been recorded, and no movie was acquired for this Friday.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for Friday's movie screening.
+MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire public performance rights for "Barbie" to be shown at the Friday event.
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -594,13 +594,13 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as no choice of movie for Friday.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -616,13 +616,13 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the assembly on Friday.
+MSG: The committee did not reach a consensus regarding which movie to show on Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -638,13 +638,13 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about what movie to show on Friday ended without any agreement.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to show "Barbie" for the upcoming event on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -682,13 +682,13 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded as no consensus was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -704,13 +704,13 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -726,13 +726,13 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made, as it will be the movie shown on Friday, with discussions involving "Oppenheimer" and its themes to follow.
+MSG: The decision to acquire the rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -748,13 +748,13 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for Friday's movie showing.
+MSG: The decision has been recorded, indicating that no agreement was reached regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -770,13 +770,13 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" to be shown at the graduation event.
+MSG: The decision outcome is recorded as no decision being made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -792,13 +792,13 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for Friday's movie screening.
+MSG: The decision about the movie for Friday could not be made, leading to no acquisition.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -814,13 +814,13 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been recorded.
+MSG: The decision has been recorded, indicating that no movie was selected during the conversation.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -836,13 +836,13 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to show on Friday.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -858,13 +858,13 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded with no choice on the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming student event.
+MSG: The decision has been made to acquire the rights to "Barbie."
 </t>
         </is>
       </c>
@@ -902,13 +902,13 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie selection.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been confirmed.
 </t>
         </is>
       </c>
@@ -946,13 +946,13 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no movie being selected.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -968,13 +968,13 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be screened for the students on Friday.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -990,13 +990,13 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee did not come to a decision about what movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1012,13 +1012,13 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the screening on Friday.
+MSG: The decision has been recorded, reflecting that no agreement was reached on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1034,13 +1034,13 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for Friday's movie event.
+MSG: The decision has been recorded as no selection for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1056,13 +1056,13 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision was made not to select a movie for Friday, as there was no consensus between the committee members.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as it will be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision to acquire the rights for "Barbie" has been finalized.
 </t>
         </is>
       </c>
@@ -1122,13 +1122,13 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie."
+MSG: The decision regarding which movie to show on Friday has not been made, so I have called the no_decision function.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" for Friday's showing.
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming school assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1188,13 +1188,13 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: It seems no decision about Friday’s movie was reached.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: I have recorded the decision to acquire the rights for "Oppenheimer" as the selected movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1232,13 +1232,13 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the seniors' event on Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1254,13 +1254,13 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: No movie was selected in this meeting.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights to "Barbie" for Friday's movie.
 </t>
         </is>
       </c>
@@ -1298,13 +1298,13 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1320,13 +1320,13 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision about Friday's movie was not finalized, so no agreement was reached.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>

--- a/Warehouse/DA/judgement_logs_run4o.xlsx
+++ b/Warehouse/DA/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no movie selected for Friday.
+MSG: The decision process has concluded without reaching an agreement on a movie for Friday.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selected for Friday.
+MSG: The decision has been recorded as no consensus was reached regarding the movie to show on Friday.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to play on Friday has resulted in no consensus.
+MSG: The decision about the movie for Friday has not been made.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie was acquired for this Friday.
+MSG: The decision has been recorded as no movie was selected during the meeting.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision to acquire the rights to "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie."
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no choice of movie for Friday.
+MSG: The committee did not reach a decision regarding the movie to show on Friday.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a consensus regarding which movie to show on Friday, resulting in no decision being made.
+MSG: The decision regarding the movie to show on Friday ended without a definitive choice being made.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about what movie to show on Friday ended without any agreement.
+MSG: The decision for Friday's movie was not finalized, so we have no selection to make.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no consensus was reached regarding the movie to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision."
+MSG: The decision has been recorded, indicating that no movie will be shown on Friday based on the committee's discussion.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been recorded successfully.
+MSG: The rights to both movies, "Barbie" and "Oppenheimer," have been successfully acquired.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no agreement was reached regarding which movie to show on Friday.
+MSG: The decision about what movie to play on Friday resulted in no agreement.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision outcome is recorded as no decision being made regarding the movie to be shown on Friday.
+MSG: The decision process concluded without a consensus on which movie to show on Friday, so I have recorded the outcome as no decision made.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about the movie for Friday could not be made, leading to no acquisition.
+MSG: The decision has been recorded as "no_decision," indicating that there was no agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -814,13 +814,13 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected during the conversation.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no movie selected for Friday.
+MSG: The decision not to acquire a movie for Friday has been recorded.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no choice on the movie for Friday.
+MSG: The decision to show a movie on Friday was not made by the committee.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie."
+MSG: The decision has been recorded, and the movie "Barbie" will be acquired for Friday's showing.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie selection.
+MSG: The decision has been recorded as no agreement was reached regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been confirmed.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected.
+MSG: The decision regarding the movie for Friday has been recorded as "no_decision."
 </t>
         </is>
       </c>
@@ -968,13 +968,13 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been successfully acquired.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not come to a decision about what movie to show on Friday.
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, reflecting that no agreement was reached on which movie to show on Friday.
+MSG: The decision regarding the movie for Friday was not reached, and thus the proper course of action was to conclude that there is no decision.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no selection for Friday's movie.
+MSG: The decision has been recorded, and no movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was made not to select a movie for Friday, as there was no consensus between the committee members.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been finalized.
+MSG: The decision has been successfully recorded with "Barbie" being selected as the movie to acquire for the event.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday has not been made, so I have called the no_decision function.
+MSG: The decision-making process ended without a clear choice for Friday's movie, therefore no action was taken regarding the acquisition of movie rights.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded, and the movie selected for Friday is "Barbie."
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The movie "Barbie" has been selected for the assembly.
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: It seems no decision about Friday’s movie was reached.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Oppenheimer" as the selected movie to show on Friday.
+MSG: The decision has been recorded, and the rights to "Oppenheimer" will be acquired for the upcoming screening.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision."
+MSG: The decision about which movie to show on Friday was not concluded, so I am calling the no_decision function.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No movie was selected in this meeting.
+MSG: The decision has been recorded as no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for Friday's movie.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision."
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about Friday's movie was not finalized, so no agreement was reached.
+MSG: The decision regarding the movie for Friday was concluded without an agreement, resulting in no decision being made.
 </t>
         </is>
       </c>

--- a/Warehouse/DA/judgement_logs_run4o.xlsx
+++ b/Warehouse/DA/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without reaching an agreement on a movie for Friday.
+MSG: The decision-making committee did not reach an agreement about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no consensus was reached regarding the movie to show on Friday.
+MSG: The decision has been recorded, indicating that no movie was selected during the meeting.
 </t>
         </is>
       </c>
@@ -500,13 +500,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;58;46.json</t>
+          <t>./Warehouse/DA/run4o_08_12_2025 at_20;34;44.json</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about the movie for Friday has not been made.
+MSG: The decision has been recorded as "no decision" regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -522,19 +522,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;50;47.json</t>
+          <t>./Warehouse/DA/run4o_08_11_2025 at_13;44;31.json</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected during the meeting.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -544,19 +544,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;49;57.json</t>
+          <t>./Warehouse/DA/run4o_08_16_2025 at_13;49;43.json</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to "Barbie" has been successfully recorded.
+MSG: The decision to show a movie on Friday was not reached during the discussion.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -566,19 +566,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_02;07;35.json</t>
+          <t>./Warehouse/DA/run4o_08_12_2025 at_20;27;56.json</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded, and no movie has been selected for Friday.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -588,13 +588,13 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;57;56.json</t>
+          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;58;46.json</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision regarding the movie to show on Friday.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -610,19 +610,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_02;10;38.json</t>
+          <t>./Warehouse/DA/run4o_08_12_2025 at_20;24;49.json</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to show on Friday ended without a definitive choice being made.
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -632,13 +632,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_02;03;30.json</t>
+          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;50;47.json</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for Friday's movie was not finalized, so we have no selection to make.
+MSG: No decision was made about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -654,13 +654,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_02;12;11.json</t>
+          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;49;57.json</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights for "Barbie" have been successfully acquired.
 </t>
         </is>
       </c>
@@ -676,13 +676,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;44;47.json</t>
+          <t>./Warehouse/DA/run4o_08_11_2025 at_13;34;00.json</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
+MSG: The decision has been recorded as no movie was selected for Friday's showing.
 </t>
         </is>
       </c>
@@ -698,13 +698,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;46;05.json</t>
+          <t>./Warehouse/DA/run4o_08_12_2025 at_20;25;36.json</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie will be shown on Friday based on the committee's discussion.
+MSG: The decision has been made to call the no_decision function, indicating that no agreement was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -720,19 +720,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;59;52.json</t>
+          <t>./Warehouse/DA/run4o_08_12_2025 at_20;19;51.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies, "Barbie" and "Oppenheimer," have been successfully acquired.
+MSG: The function has been called, indicating that no decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -742,13 +742,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;51;56.json</t>
+          <t>./Warehouse/DA/run4o_08_11_2025 at_15;25;50.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about what movie to play on Friday resulted in no agreement.
+MSG: The decision has been made that there is no agreement on what movie to show on Friday.
 </t>
         </is>
       </c>
@@ -764,19 +764,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_04_28_2025 at_13;36;35.json</t>
+          <t>./Warehouse/DA/run4o_08_11_2025 at_13;33;04.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without a consensus on which movie to show on Friday, so I have recorded the outcome as no decision made.
+MSG: The decision to acquire the rights for "Oppenheimer" has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -786,13 +786,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_04_28_2025 at_13;39;06.json</t>
+          <t>./Warehouse/DA/run4o_08_11_2025 at_13;31;04.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no_decision," indicating that there was no agreement on which movie to show on Friday.
+MSG: The decision for Friday's movie was not reached, so there will be no movie selected at this time.
 </t>
         </is>
       </c>
@@ -808,19 +808,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;49;03.json</t>
+          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_02;07;35.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: It appears that there was no decision reached regarding what movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -830,13 +830,13 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_07_01_2025 at_10;42;44.json</t>
+          <t>./Warehouse/DA/run4o_08_11_2025 at_13;47;21.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision not to acquire a movie for Friday has been recorded.
+MSG: The decision was made to not select any movie for Friday.
 </t>
         </is>
       </c>
@@ -852,19 +852,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;39;25.json</t>
+          <t>./Warehouse/DA/run4o_08_11_2025 at_15;24;19.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show a movie on Friday was not made by the committee.
+MSG: The decision has been recorded, and "Oppenheimer" will be acquired for showing on Friday.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -874,19 +874,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_04_28_2025 at_13;38;09.json</t>
+          <t>./Warehouse/DA/run4o_08_12_2025 at_20;23;19.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the movie "Barbie" will be acquired for Friday's showing.
+MSG: The decision has been recorded, indicating that no agreement was reached regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -896,13 +896,13 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;41;43.json</t>
+          <t>./Warehouse/DA/run4o_08_16_2025 at_13;52;33.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no agreement was reached regarding which movie to show on Friday.
+MSG: The decision process concluded without a definitive choice regarding which movie to show on Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
@@ -918,19 +918,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_04_28_2025 at_13;37;16.json</t>
+          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;57;56.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -940,19 +940,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;44;00.json</t>
+          <t>./Warehouse/DA/run4o_08_11_2025 at_13;43;26.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday has been recorded as "no_decision."
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -962,19 +962,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;48;07.json</t>
+          <t>./Warehouse/DA/run4o_08_11_2025 at_13;39;31.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision has been recorded as no decision regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -984,13 +984,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;53;25.json</t>
+          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_02;10;38.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selected for Friday.
+MSG: The decision has been made that no specific movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1006,13 +1006,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_04_28_2025 at_13;31;56.json</t>
+          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_02;03;30.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday was not reached, and thus the proper course of action was to conclude that there is no decision.
+MSG: The decision has been recorded, and no action will be taken regarding the acquisition of a movie for Friday.
 </t>
         </is>
       </c>
@@ -1028,19 +1028,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;42;47.json</t>
+          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_02;12;11.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie will be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1050,13 +1050,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_02;00;40.json</t>
+          <t>./Warehouse/DA/run4o_08_12_2025 at_20;21;54.json</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected for Friday.
+MSG: The decision about the movie was not made, so the outcome is that no decision was reached.
 </t>
         </is>
       </c>
@@ -1072,19 +1072,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_04_28_2025 at_13;31;06.json</t>
+          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;44;47.json</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+MSG: Based on the criteria outlined, I have determined that there was no clear decision made about what movie will be shown on Friday, thus I will call the function indicating no decision.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1094,19 +1094,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_04_28_2025 at_13;33;52.json</t>
+          <t>./Warehouse/DA/run4o_08_12_2025 at_20;16;47.json</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been successfully recorded with "Barbie" being selected as the movie to acquire for the event.
+MSG: The decision to select a movie for Friday's showing has not been made, resulting in no decision.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1116,13 +1116,13 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_02;09;16.json</t>
+          <t>./Warehouse/DA/run4o_08_11_2025 at_15;26;24.json</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process ended without a clear choice for Friday's movie, therefore no action was taken regarding the acquisition of movie rights.
+MSG: The decision-making process concluded without an agreement on which movie to show. Therefore, the movie selection is not finalized.
 </t>
         </is>
       </c>
@@ -1138,19 +1138,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_02;02;14.json</t>
+          <t>./Warehouse/DA/run4o_08_11_2025 at_13;29;22.json</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the movie selected for Friday is "Barbie."
+MSG: The decision has been recorded as no decision being made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1160,13 +1160,13 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_02;12;55.json</t>
+          <t>./Warehouse/DA/run4o_08_11_2025 at_13;26;39.json</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been selected for the assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1182,13 +1182,13 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_02;08;18.json</t>
+          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;46;05.json</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected for Friday.
+MSG: The decision about which movie to show on Friday has not been made, so the outcome is “no decision.”
 </t>
         </is>
       </c>
@@ -1204,19 +1204,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_04_28_2025 at_13;35;48.json</t>
+          <t>./Warehouse/DA/run4o_08_16_2025 at_13;50;52.json</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights to "Oppenheimer" will be acquired for the upcoming screening.
+MSG: The decision has been recorded as no decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1226,13 +1226,13 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_02;04;44.json</t>
+          <t>./Warehouse/DA/run4o_08_12_2025 at_20;17;40.json</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not concluded, so I am calling the no_decision function.
+MSG: The decision regarding the movie for Friday cannot be made.
 </t>
         </is>
       </c>
@@ -1248,13 +1248,13 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_04_28_2025 at_13;34;43.json</t>
+          <t>./Warehouse/DA/run4o_08_12_2025 at_20;28;52.json</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected for Friday.
+MSG: The decision has been recorded, and it indicates that no agreement was reached about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1270,13 +1270,13 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;40;30.json</t>
+          <t>./Warehouse/DA/run4o_08_11_2025 at_13;32;24.json</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1292,13 +1292,13 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>./Warehouse/DA/run4o_discovery_07_01_2025 at_10;34;40.json</t>
+          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;59;52.json</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has not been made.
+MSG: The decision to select a movie for Friday was not made, indicating that there was no clear consensus.
 </t>
         </is>
       </c>
@@ -1314,17 +1314,1230 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;51;56.json</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, indicating that no movie was selected.
+</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_discovery_04_28_2025 at_13;36;35.json</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: No decision was made regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_08_16_2025 at_13;48;15.json</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the rights for both movies will be acquired.
+</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_08_11_2025 at_13;29;59.json</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding which movie to show on Friday remains unresolved, and therefore, no decision has been made.
+</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_discovery_04_28_2025 at_13;39;06.json</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_08_11_2025 at_15;27;49.json</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_08_16_2025 at_13;55;20.json</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday has not been made.
+</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_08_12_2025 at_20;24;07.json</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding the movie to be shown on Friday has resulted in no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;49;03.json</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
+</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_discovery_07_01_2025 at_10;42;44.json</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday has not been finalized, so we are proceeding with no decision.
+</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_08_12_2025 at_20;16;05.json</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to show "Oppenheimer" has been confirmed. Thank you for the update!
+</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_08_11_2025 at_15;28;27.json</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights for both movies.
+</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_08_11_2025 at_13;28;31.json</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The conversation did not lead to a decision about which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_08_12_2025 at_20;31;07.json</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and no movie will be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_08_11_2025 at_15;32;18.json</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the rights for "Barbie" have been acquired.
+</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_08_11_2025 at_15;29;19.json</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for Friday's movie concluded without a selection being made.
+</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_08_11_2025 at_13;45;35.json</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to show a movie on Friday could not be made, resulting in no selection.
+</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;39;25.json</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday was not reached, leading to no selection being made.
+</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_discovery_04_28_2025 at_13;38;09.json</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie".
+</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_08_11_2025 at_13;41;04.json</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding the movie for Friday was not finalized, and thus a choice has not been made.
+</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_08_16_2025 at_13;50;15.json</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_08_16_2025 at_13;51;59.json</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process resulted in no agreement on which movie to play on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;41;43.json</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process has concluded without agreeing on a specific movie for Friday, so no acquisition will be made.
+</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_discovery_04_28_2025 at_13;37;16.json</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights to "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_08_16_2025 at_13;47;21.json</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The function has been successfully executed, indicating that no decision was made regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;44;00.json</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no decision" regarding the movie selection for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;48;07.json</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the movie "Oppenheimer" will be acquired for showing on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_08_11_2025 at_15;31;35.json</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision was made regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_08_11_2025 at_15;30;18.json</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights for both movies have been acquired.
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_08_16_2025 at_13;53;57.json</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;53;25.json</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process did not result in a clear choice for a movie to show on Friday. Therefore, no acquisition will be made at this time.
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_08_12_2025 at_20;32;44.json</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee did not arrive at a decision regarding which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_08_12_2025 at_20;26;40.json</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: No decision was made about which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_discovery_04_28_2025 at_13;31;56.json</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the meeting is that no movie was selected.
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;42;47.json</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: No decision was made regarding the movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_02;00;40.json</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no choice about Friday’s movie can be made at this time.
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_08_12_2025 at_20;20;57.json</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and no movie will be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_discovery_04_28_2025 at_13;31;06.json</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_08_11_2025 at_15;25;01.json</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee did not reach a decision regarding a movie for Friday's showing.
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_08_12_2025 at_20;32;04.json</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights to show "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_08_12_2025 at_20;27;29.json</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_discovery_04_28_2025 at_13;33;52.json</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_08_11_2025 at_13;46;24.json</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday could not be made.
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_08_12_2025 at_20;36;34.json</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision regarding the movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_08_12_2025 at_20;19;12.json</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: None
+MSG: None
+MSG: None
+MSG: I have recorded the decision to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, , Barbie_was_selected, , Barbie_was_selected, , Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_02;09;16.json</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded with no selection made for Friday's movie.
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_02;02;14.json</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_02;12;55.json</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_02;08;18.json</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no movie being selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_discovery_04_28_2025 at_13;35;48.json</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Oppenheimer" has been recorded successfully.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_02;04;44.json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded indicating that no movie has been selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_08_11_2025 at_13;27;21.json</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision about Friday’s movie can be made.
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_discovery_04_28_2025 at_13;34;43.json</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday has not been made.
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_01;40;30.json</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The movie "Barbie" has been successfully selected for acquisition.
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>./Warehouse/DA/run4o_discovery_07_01_2025 at_10;34;40.json</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded with no conclusive choice made regarding the movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
           <t>./Warehouse/DA/run4o_discovery_05_02_2025 at_02;06;16.json</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday was concluded without an agreement, resulting in no decision being made.
-</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding which movie to show on Friday has not been made.
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t xml:space="preserve">no_decision, </t>
         </is>
